--- a/src/main/resources/ExcelFiles/LoginData.xlsx
+++ b/src/main/resources/ExcelFiles/LoginData.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bijuv\eclipse-workspace\com.sevenrmartsupermarket\src\main\resources\ExcelFiles\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{13AAA219-8950-4431-BF62-3650C60D6B1B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00C88B6F-4AA1-4F16-8D48-B67F895A2B12}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2544" yWindow="2544" windowWidth="17280" windowHeight="8880" xr2:uid="{A06BD3BD-CAF6-4098-B663-212C613FF9CD}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="4">
   <si>
     <t>userName</t>
   </si>
@@ -43,6 +43,9 @@
   </si>
   <si>
     <t>admin</t>
+  </si>
+  <si>
+    <t>jio</t>
   </si>
 </sst>
 </file>
@@ -394,10 +397,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9667A572-6D7A-4E69-AB2E-9741126D9AAF}">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -418,6 +421,14 @@
         <v>2</v>
       </c>
     </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" t="s">
+        <v>3</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
